--- a/dados/ecomonline11.xlsx
+++ b/dados/ecomonline11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:1568119549#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=477db49b-2312-42e8-9d8e-844b99cc8f6a</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:1568119549#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6e20b08-b451-4cf9-a5eb-fdbd699c2d75</t>
         </is>
       </c>
     </row>

--- a/dados/ecomonline11.xlsx
+++ b/dados/ecomonline11.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>56.16</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:1568119549#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6e20b08-b451-4cf9-a5eb-fdbd699c2d75</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:1568119549#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=5ee1daf9-d29d-4b90-9d26-b9e6bdc3ee1b</t>
         </is>
       </c>
     </row>

--- a/dados/ecomonline11.xlsx
+++ b/dados/ecomonline11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,31 +473,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1568119549#searchVariation=MLB28687615&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d2edad7-5ba6-4f5d-85e1-2d1b4e35d382</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sequenciador Voltímetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>56.16</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="C3" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:1568119549#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=5ee1daf9-d29d-4b90-9d26-b9e6bdc3ee1b</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi/p/MLB28252131?pdp_filters=seller_id:1568119549#searchVariation=MLB28252131&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d2edad7-5ba6-4f5d-85e1-2d1b4e35d382</t>
         </is>
       </c>
     </row>

--- a/dados/ecomonline11.xlsx
+++ b/dados/ecomonline11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,66 +483,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ecomonline11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>56.16</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1568119549#searchVariation=MLB28687615&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d2edad7-5ba6-4f5d-85e1-2d1b4e35d382</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sequenciador Voltímetro Medidor Bateria Digital Jfa Vs5 Hi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi/p/MLB28252131?pdp_filters=seller_id:1568119549#searchVariation=MLB28252131&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d2edad7-5ba6-4f5d-85e1-2d1b4e35d382</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:1568119549#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6c16a85a-68fd-437c-a9c0-84cd32267bbd</t>
         </is>
       </c>
     </row>

--- a/dados/ecomonline11.xlsx
+++ b/dados/ecomonline11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,7 +521,48 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:1568119549#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6c16a85a-68fd-437c-a9c0-84cd32267bbd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:1568119549#searchVariation=MLB34245679&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9b821e9f-3e58-4685-8c9c-bb8b067e7f88</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ecomonline11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sequenciador Voltímetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi/p/MLB28252131?pdp_filters=seller_id:1568119549#searchVariation=MLB28252131&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9b821e9f-3e58-4685-8c9c-bb8b067e7f88</t>
         </is>
       </c>
     </row>
